--- a/Dokumentation/Test.xlsx
+++ b/Dokumentation/Test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kenneth/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kenneth/Desktop/SE Project/Paddlecs/Dokumentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86B2F0DF-855B-BB4B-9B7C-BF0BB3EF4C87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF259696-5C4A-8649-8961-1D8C8AB5FBFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="320" yWindow="460" windowWidth="24940" windowHeight="14700" xr2:uid="{2BD45015-2A10-3742-9163-15A7B819D868}"/>
   </bookViews>
@@ -28,6 +28,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>aduzzdgawg</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,7 +390,13 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>